--- a/database/ZamoraMarina.xlsx
+++ b/database/ZamoraMarina.xlsx
@@ -236,13 +236,13 @@
     <t>so4</t>
   </si>
   <si>
+    <t>Sulphate (mg L-1)</t>
+  </si>
+  <si>
+    <t>alkalinity</t>
+  </si>
+  <si>
     <t>Alkalinity (mg L-1)</t>
-  </si>
-  <si>
-    <t>alkalinity</t>
-  </si>
-  <si>
-    <t>Sulphate (mg L-1)</t>
   </si>
   <si>
     <t>cl</t>
